--- a/REGULAR/DIMAPILIS, VILMA.xlsx
+++ b/REGULAR/DIMAPILIS, VILMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CDSWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914495DE-BAC3-4B80-BD07-1E5BA0F65F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38651DCA-328A-437F-8F7A-2E779CFB055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="258">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1845,7 +1845,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4308" topLeftCell="A578" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B582" sqref="B582"/>
+      <selection pane="bottomLeft" activeCell="D586" sqref="D586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2004,7 +2004,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>174.279</v>
+        <v>174.529</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2014,7 +2014,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.5</v>
+        <v>191.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14241,19 +14241,27 @@
       <c r="A585" s="40">
         <v>44986</v>
       </c>
-      <c r="B585" s="20"/>
-      <c r="C585" s="13"/>
-      <c r="D585" s="39"/>
+      <c r="B585" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C585" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D585" s="39">
+        <v>1</v>
+      </c>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
-      <c r="G585" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G585" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H585" s="39"/>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="20"/>
+      <c r="K585" s="50">
+        <v>45002</v>
+      </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">

--- a/REGULAR/DIMAPILIS, VILMA.xlsx
+++ b/REGULAR/DIMAPILIS, VILMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38651DCA-328A-437F-8F7A-2E779CFB055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597557A4-976C-4647-9AEB-33FBC0962E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="259">
   <si>
     <t>PERIOD</t>
   </si>
@@ -808,6 +819,9 @@
   </si>
   <si>
     <t>12/22,23</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1842,10 +1856,10 @@
   </sheetPr>
   <dimension ref="A2:K634"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A578" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="D586" sqref="D586"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4308" topLeftCell="A578"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="H583" sqref="H583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1854,11 +1868,11 @@
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
@@ -2004,7 +2018,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>174.529</v>
+        <v>174.779</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2014,7 +2028,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>191.75</v>
+        <v>194</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14196,7 +14210,7 @@
         <v>44958</v>
       </c>
       <c r="B583" s="20" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C583" s="13">
         <v>1.25</v>
@@ -14208,9 +14222,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H583" s="39">
-        <v>1</v>
-      </c>
+      <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
       <c r="K583" s="50">
@@ -14267,19 +14279,27 @@
       <c r="A586" s="40">
         <v>45017</v>
       </c>
-      <c r="B586" s="20"/>
-      <c r="C586" s="13"/>
-      <c r="D586" s="39"/>
+      <c r="B586" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C586" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D586" s="39">
+        <v>1</v>
+      </c>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G586" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="20"/>
+      <c r="K586" s="50">
+        <v>45061</v>
+      </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
@@ -15129,14 +15149,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -15230,6 +15250,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>258</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15251,6 +15274,10 @@
       <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!I9,Sheet1!E9)</f>
+        <v>368.779</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/DIMAPILIS, VILMA.xlsx
+++ b/REGULAR/DIMAPILIS, VILMA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597557A4-976C-4647-9AEB-33FBC0962E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="259">
   <si>
     <t>PERIOD</t>
   </si>
@@ -827,7 +826,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1525,25 +1524,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K634" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K634" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1850,34 +1849,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K634"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A578"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="H583" sqref="H583"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4305" topLeftCell="A580" activePane="bottomLeft"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
+      <selection pane="bottomLeft" activeCell="B588" sqref="B588"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1898,7 +1897,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1916,7 +1915,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1936,7 +1935,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1944,7 +1943,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1957,7 +1956,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -1974,7 +1973,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2028,12 +2027,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -2057,7 +2056,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="49">
         <v>35976</v>
@@ -2075,7 +2074,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35977</v>
       </c>
@@ -2095,7 +2094,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36008</v>
       </c>
@@ -2115,7 +2114,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>45</v>
@@ -2132,7 +2131,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36039</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>36056</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -2177,7 +2176,7 @@
         <v>36068</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>47</v>
@@ -2194,7 +2193,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36069</v>
       </c>
@@ -2220,7 +2219,7 @@
         <v>36075</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -2237,7 +2236,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36100</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>36126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>46</v>
@@ -2282,7 +2281,7 @@
         <v>36125</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>50</v>
@@ -2299,7 +2298,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36130</v>
       </c>
@@ -2323,7 +2322,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>52</v>
       </c>
@@ -2341,7 +2340,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36161</v>
       </c>
@@ -2365,7 +2364,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36192</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>36201</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36220</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>36244</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36251</v>
       </c>
@@ -2439,7 +2438,7 @@
         <v>36257</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36281</v>
       </c>
@@ -2463,7 +2462,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>46</v>
@@ -2482,7 +2481,7 @@
         <v>36293</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>54</v>
@@ -2499,7 +2498,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36312</v>
       </c>
@@ -2523,7 +2522,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36342</v>
       </c>
@@ -2547,7 +2546,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36373</v>
       </c>
@@ -2567,7 +2566,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36404</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>36418</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36434</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>36454</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36465</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>49</v>
@@ -2660,7 +2659,7 @@
         <v>36489</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36495</v>
       </c>
@@ -2680,7 +2679,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>59</v>
       </c>
@@ -2698,7 +2697,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36526</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>36529</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36557</v>
       </c>
@@ -2744,7 +2743,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36586</v>
       </c>
@@ -2768,7 +2767,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36617</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>36629</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36647</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>36661</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>61</v>
@@ -2840,7 +2839,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36678</v>
       </c>
@@ -2860,7 +2859,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36708</v>
       </c>
@@ -2880,7 +2879,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36739</v>
       </c>
@@ -2904,7 +2903,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36770</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>36784</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36800</v>
       </c>
@@ -2950,7 +2949,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36831</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>63</v>
@@ -2993,7 +2992,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36861</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>36880</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>64</v>
@@ -3039,7 +3038,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>66</v>
       </c>
@@ -3057,7 +3056,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36892</v>
       </c>
@@ -3081,7 +3080,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36923</v>
       </c>
@@ -3101,7 +3100,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36951</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>36615</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36982</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>36641</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>55</v>
@@ -3170,7 +3169,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37012</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>36674</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>67</v>
@@ -3213,7 +3212,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37043</v>
       </c>
@@ -3237,7 +3236,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37073</v>
       </c>
@@ -3261,7 +3260,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37104</v>
       </c>
@@ -3285,7 +3284,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37135</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>36783</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>69</v>
@@ -3328,7 +3327,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37165</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>36825</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>70</v>
@@ -3373,7 +3372,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>71</v>
@@ -3392,7 +3391,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
@@ -3409,7 +3408,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>37196</v>
       </c>
@@ -3435,7 +3434,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>64</v>
@@ -3452,7 +3451,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="50"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37226</v>
       </c>
@@ -3472,7 +3471,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>74</v>
       </c>
@@ -3490,7 +3489,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37257</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>37281</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37288</v>
       </c>
@@ -3540,7 +3539,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37316</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>37330</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>49</v>
@@ -3585,7 +3584,7 @@
         <v>37340</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>47</v>
@@ -3602,7 +3601,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37347</v>
       </c>
@@ -3626,7 +3625,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37377</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>37391</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>76</v>
@@ -3671,7 +3670,7 @@
         <v>37410</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37408</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>37424</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37438</v>
       </c>
@@ -3717,7 +3716,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37469</v>
       </c>
@@ -3737,7 +3736,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37500</v>
       </c>
@@ -3761,7 +3760,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37530</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>37558</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>79</v>
@@ -3807,7 +3806,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37561</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>46</v>
@@ -3855,7 +3854,7 @@
         <v>37593</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>80</v>
@@ -3875,7 +3874,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37591</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>81</v>
@@ -3921,7 +3920,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>84</v>
       </c>
@@ -3939,7 +3938,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37622</v>
       </c>
@@ -3965,7 +3964,7 @@
         <v>37641</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>85</v>
@@ -3982,7 +3981,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37653</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>37672</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37681</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>37705</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>49</v>
@@ -4053,7 +4052,7 @@
         <v>37708</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>87</v>
@@ -4070,7 +4069,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37712</v>
       </c>
@@ -4090,7 +4089,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37742</v>
       </c>
@@ -4116,7 +4115,7 @@
         <v>37756</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>88</v>
@@ -4135,7 +4134,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37773</v>
       </c>
@@ -4161,7 +4160,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>71</v>
@@ -4180,7 +4179,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>90</v>
@@ -4197,7 +4196,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="50"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37803</v>
       </c>
@@ -4217,7 +4216,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37834</v>
       </c>
@@ -4243,7 +4242,7 @@
         <v>37840</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37865</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>37882</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>55</v>
@@ -4286,7 +4285,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37895</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>37915</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>91</v>
@@ -4329,7 +4328,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37926</v>
       </c>
@@ -4355,7 +4354,7 @@
         <v>37953</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>87</v>
@@ -4372,7 +4371,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37956</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>37984</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>92</v>
@@ -4418,7 +4417,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>93</v>
       </c>
@@ -4436,7 +4435,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>37987</v>
       </c>
@@ -4460,7 +4459,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38018</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>38046</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>46</v>
@@ -4505,7 +4504,7 @@
         <v>38030</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>91</v>
@@ -4524,7 +4523,7 @@
         <v>38044</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>38047</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>38071</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>96</v>
@@ -4569,7 +4568,7 @@
         <v>38069</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38078</v>
       </c>
@@ -4595,7 +4594,7 @@
         <v>38093</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>95</v>
@@ -4614,7 +4613,7 @@
         <v>38091</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38108</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>38130</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>46</v>
@@ -4655,7 +4654,7 @@
         <v>38113</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>46</v>
@@ -4672,7 +4671,7 @@
         <v>38121</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>49</v>
@@ -4691,7 +4690,7 @@
         <v>38127</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>46</v>
@@ -4708,7 +4707,7 @@
         <v>38125</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>49</v>
@@ -4727,7 +4726,7 @@
         <v>38140</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>56</v>
@@ -4744,7 +4743,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38139</v>
       </c>
@@ -4764,7 +4763,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38169</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>55</v>
@@ -4805,7 +4804,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38200</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>38209</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>46</v>
@@ -4846,7 +4845,7 @@
         <v>38226</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38231</v>
       </c>
@@ -4872,7 +4871,7 @@
         <v>38245</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>46</v>
@@ -4891,7 +4890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>98</v>
@@ -4908,7 +4907,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="50"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>38261</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>38268</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>46</v>
@@ -4953,7 +4952,7 @@
         <v>38286</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>99</v>
@@ -4970,7 +4969,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38292</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>46</v>
@@ -5015,7 +5014,7 @@
         <v>38317</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38322</v>
       </c>
@@ -5039,7 +5038,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
         <v>103</v>
       </c>
@@ -5057,7 +5056,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38353</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>38355</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>46</v>
@@ -5098,7 +5097,7 @@
         <v>38358</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>71</v>
@@ -5115,7 +5114,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>51</v>
@@ -5134,7 +5133,7 @@
         <v>38377</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38384</v>
       </c>
@@ -5158,7 +5157,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38412</v>
       </c>
@@ -5182,7 +5181,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38443</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>38456</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>104</v>
@@ -5225,7 +5224,7 @@
         <v>38457</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>107</v>
@@ -5242,7 +5241,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>109</v>
@@ -5261,7 +5260,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38473</v>
       </c>
@@ -5285,7 +5284,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38504</v>
       </c>
@@ -5311,7 +5310,7 @@
         <v>38525</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>46</v>
@@ -5330,7 +5329,7 @@
         <v>38505</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38534</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>38560</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>55</v>
@@ -5373,7 +5372,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38565</v>
       </c>
@@ -5399,7 +5398,7 @@
         <v>38610</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38596</v>
       </c>
@@ -5425,7 +5424,7 @@
         <v>38611</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>112</v>
@@ -5442,7 +5441,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38626</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>38711</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38657</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>38681</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>114</v>
@@ -5511,7 +5510,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38687</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>38713</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>117</v>
@@ -5559,7 +5558,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>86</v>
@@ -5579,7 +5578,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="48" t="s">
         <v>118</v>
       </c>
@@ -5597,7 +5596,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>38718</v>
       </c>
@@ -5623,7 +5622,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38749</v>
       </c>
@@ -5643,7 +5642,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38777</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>38792</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>120</v>
@@ -5684,7 +5683,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38808</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>38852</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>46</v>
@@ -5727,7 +5726,7 @@
         <v>38862</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>121</v>
@@ -5744,7 +5743,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>38838</v>
       </c>
@@ -5768,7 +5767,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>38869</v>
       </c>
@@ -5788,7 +5787,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>38899</v>
       </c>
@@ -5812,7 +5811,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>38930</v>
       </c>
@@ -5836,7 +5835,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>38961</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>38975</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>46</v>
@@ -5879,7 +5878,7 @@
         <v>38989</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>38991</v>
       </c>
@@ -5903,7 +5902,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>39022</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>39045</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>61</v>
@@ -5946,7 +5945,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39052</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>39062</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="41"/>
       <c r="B192" s="15" t="s">
         <v>124</v>
@@ -5992,7 +5991,7 @@
       <c r="J192" s="12"/>
       <c r="K192" s="15"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="48" t="s">
         <v>126</v>
       </c>
@@ -6010,7 +6009,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>39083</v>
       </c>
@@ -6034,7 +6033,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>39114</v>
       </c>
@@ -6058,7 +6057,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39142</v>
       </c>
@@ -6082,7 +6081,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>39173</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>39191</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>104</v>
@@ -6123,7 +6122,7 @@
         <v>39204</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>127</v>
@@ -6140,7 +6139,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39203</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>129</v>
@@ -6183,7 +6182,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>39234</v>
       </c>
@@ -6207,7 +6206,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>39264</v>
       </c>
@@ -6231,7 +6230,7 @@
         <v>39289</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>71</v>
@@ -6250,7 +6249,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>131</v>
@@ -6269,7 +6268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>46</v>
@@ -6288,7 +6287,7 @@
         <v>39297</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>132</v>
@@ -6305,7 +6304,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>39295</v>
       </c>
@@ -6325,7 +6324,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39326</v>
       </c>
@@ -6349,7 +6348,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39356</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>39379</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>121</v>
@@ -6392,7 +6391,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>39387</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>39409</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>106</v>
@@ -6437,7 +6436,7 @@
         <v>39443</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>136</v>
@@ -6454,7 +6453,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="50"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>39417</v>
       </c>
@@ -6478,7 +6477,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="48" t="s">
         <v>138</v>
       </c>
@@ -6496,7 +6495,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>39448</v>
       </c>
@@ -6520,7 +6519,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>39479</v>
       </c>
@@ -6540,7 +6539,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>39508</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>39532</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>139</v>
@@ -6583,7 +6582,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>39539</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39569</v>
       </c>
@@ -6633,7 +6632,7 @@
         <v>39583</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>46</v>
@@ -6652,7 +6651,7 @@
         <v>39598</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39600</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>39612</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>104</v>
@@ -6695,7 +6694,7 @@
         <v>39595</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39630</v>
       </c>
@@ -6719,7 +6718,7 @@
         <v>39626</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>39661</v>
       </c>
@@ -6745,7 +6744,7 @@
         <v>39706</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39692</v>
       </c>
@@ -6769,7 +6768,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>39722</v>
       </c>
@@ -6795,7 +6794,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>143</v>
@@ -6812,7 +6811,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>39753</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>39772</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>106</v>
@@ -6857,7 +6856,7 @@
         <v>39804</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>144</v>
@@ -6874,7 +6873,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>39783</v>
       </c>
@@ -6898,7 +6897,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="48" t="s">
         <v>146</v>
       </c>
@@ -6916,7 +6915,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39814</v>
       </c>
@@ -6936,7 +6935,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>39845</v>
       </c>
@@ -6960,7 +6959,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>39873</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>39897</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>104</v>
@@ -7003,7 +7002,7 @@
         <v>39885</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>148</v>
@@ -7020,7 +7019,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>106</v>
@@ -7039,7 +7038,7 @@
         <v>39919</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>39904</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>39932</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>149</v>
@@ -7080,7 +7079,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39934</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>39948</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>104</v>
@@ -7123,7 +7122,7 @@
         <v>39953</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>46</v>
@@ -7142,7 +7141,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>150</v>
@@ -7159,7 +7158,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>39965</v>
       </c>
@@ -7185,7 +7184,7 @@
         <v>39986</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>46</v>
@@ -7204,7 +7203,7 @@
         <v>39980</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>46</v>
@@ -7223,7 +7222,7 @@
         <v>39987</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>148</v>
@@ -7240,7 +7239,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="50"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>39995</v>
       </c>
@@ -7261,7 +7260,7 @@
         <v>40007</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>151</v>
@@ -7278,7 +7277,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>40026</v>
       </c>
@@ -7302,7 +7301,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>40057</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -7341,7 +7340,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>40087</v>
       </c>
@@ -7361,7 +7360,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>40118</v>
       </c>
@@ -7387,7 +7386,7 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>128</v>
@@ -7406,7 +7405,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40148</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>46</v>
@@ -7454,7 +7453,7 @@
         <v>40157</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>152</v>
@@ -7474,7 +7473,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="48" t="s">
         <v>156</v>
       </c>
@@ -7492,7 +7491,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>40179</v>
       </c>
@@ -7516,7 +7515,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>40210</v>
       </c>
@@ -7540,7 +7539,7 @@
         <v>40220</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>104</v>
@@ -7557,7 +7556,7 @@
         <v>40231</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>40238</v>
       </c>
@@ -7583,7 +7582,7 @@
         <v>40262</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>104</v>
@@ -7600,7 +7599,7 @@
         <v>40252</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>71</v>
@@ -7617,7 +7616,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>46</v>
@@ -7634,7 +7633,7 @@
         <v>40260</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>46</v>
@@ -7651,7 +7650,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>50</v>
@@ -7668,7 +7667,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>40269</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>71</v>
@@ -7709,7 +7708,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>106</v>
@@ -7728,7 +7727,7 @@
         <v>40296</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>152</v>
@@ -7745,7 +7744,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40299</v>
       </c>
@@ -7771,7 +7770,7 @@
         <v>40312</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>46</v>
@@ -7788,7 +7787,7 @@
         <v>40309</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>71</v>
@@ -7805,7 +7804,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>70</v>
@@ -7822,7 +7821,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>55</v>
@@ -7839,7 +7838,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>40330</v>
       </c>
@@ -7863,7 +7862,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>46</v>
@@ -7880,7 +7879,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>158</v>
@@ -7897,7 +7896,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>40360</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>67</v>
@@ -7940,7 +7939,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>40391</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>40393</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>46</v>
@@ -7985,7 +7984,7 @@
         <v>40407</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>71</v>
@@ -8004,7 +8003,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>166</v>
@@ -8021,7 +8020,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>40422</v>
       </c>
@@ -8047,7 +8046,7 @@
         <v>40436</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>106</v>
@@ -8066,7 +8065,7 @@
         <v>40435</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>46</v>
@@ -8085,7 +8084,7 @@
         <v>40437</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>167</v>
@@ -8102,7 +8101,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40452</v>
       </c>
@@ -8128,7 +8127,7 @@
         <v>40455</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>47</v>
@@ -8145,7 +8144,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>40483</v>
       </c>
@@ -8171,7 +8170,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>46</v>
@@ -8190,7 +8189,7 @@
         <v>40521</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>90</v>
@@ -8207,7 +8206,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>40513</v>
       </c>
@@ -8231,7 +8230,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="48" t="s">
         <v>171</v>
       </c>
@@ -8249,7 +8248,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>40544</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>40568</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>104</v>
@@ -8290,7 +8289,7 @@
         <v>40578</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>67</v>
@@ -8307,7 +8306,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>40575</v>
       </c>
@@ -8331,7 +8330,7 @@
         <v>40599</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>55</v>
@@ -8348,7 +8347,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="50"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>40603</v>
       </c>
@@ -8374,7 +8373,7 @@
         <v>40627</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>71</v>
@@ -8393,7 +8392,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>46</v>
@@ -8412,7 +8411,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>40634</v>
       </c>
@@ -8438,7 +8437,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>46</v>
@@ -8457,7 +8456,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>40664</v>
       </c>
@@ -8483,7 +8482,7 @@
         <v>40666</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>46</v>
@@ -8502,7 +8501,7 @@
         <v>40680</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>40695</v>
       </c>
@@ -8528,7 +8527,7 @@
         <v>40709</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>46</v>
@@ -8547,7 +8546,7 @@
         <v>40716</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>46</v>
@@ -8566,7 +8565,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>55</v>
@@ -8583,7 +8582,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40725</v>
       </c>
@@ -8609,7 +8608,7 @@
         <v>40729</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>46</v>
@@ -8628,7 +8627,7 @@
         <v>40739</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>46</v>
@@ -8647,7 +8646,7 @@
         <v>40750</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>40756</v>
       </c>
@@ -8667,7 +8666,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>40787</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>40801</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>46</v>
@@ -8712,7 +8711,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>46</v>
@@ -8731,7 +8730,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>46</v>
@@ -8750,7 +8749,7 @@
         <v>40805</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>46</v>
@@ -8769,7 +8768,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>40817</v>
       </c>
@@ -8789,7 +8788,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>40848</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>46</v>
@@ -8834,7 +8833,7 @@
         <v>40862</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>40878</v>
       </c>
@@ -8860,7 +8859,7 @@
         <v>40883</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="48" t="s">
         <v>175</v>
       </c>
@@ -8878,7 +8877,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>40909</v>
       </c>
@@ -8902,7 +8901,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>140</v>
@@ -8919,7 +8918,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>40940</v>
       </c>
@@ -8939,7 +8938,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>40969</v>
       </c>
@@ -8965,7 +8964,7 @@
         <v>40981</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>71</v>
@@ -8984,7 +8983,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>63</v>
@@ -9001,7 +9000,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>41000</v>
       </c>
@@ -9027,7 +9026,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>41030</v>
       </c>
@@ -9053,7 +9052,7 @@
         <v>41044</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>109</v>
@@ -9072,7 +9071,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>46</v>
@@ -9091,7 +9090,7 @@
         <v>41058</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>178</v>
@@ -9108,7 +9107,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>41061</v>
       </c>
@@ -9128,7 +9127,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>41091</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>41107</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>46</v>
@@ -9173,7 +9172,7 @@
         <v>41122</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>41122</v>
       </c>
@@ -9199,7 +9198,7 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>46</v>
@@ -9218,7 +9217,7 @@
         <v>41145</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>55</v>
@@ -9235,7 +9234,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>41153</v>
       </c>
@@ -9261,7 +9260,7 @@
         <v>41163</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>55</v>
@@ -9278,7 +9277,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>41183</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>41186</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>46</v>
@@ -9323,7 +9322,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>46</v>
@@ -9342,7 +9341,7 @@
         <v>41205</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>128</v>
@@ -9361,7 +9360,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>46</v>
@@ -9380,7 +9379,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>68</v>
@@ -9397,7 +9396,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="50"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>41214</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>41233</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>46</v>
@@ -9442,7 +9441,7 @@
         <v>41239</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>46</v>
@@ -9461,7 +9460,7 @@
         <v>41247</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>56</v>
@@ -9478,7 +9477,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>41244</v>
       </c>
@@ -9504,7 +9503,7 @@
         <v>41257</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>46</v>
@@ -9526,7 +9525,7 @@
         <v>41261</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>182</v>
@@ -9546,7 +9545,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="48" t="s">
         <v>183</v>
       </c>
@@ -9564,7 +9563,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>41275</v>
       </c>
@@ -9588,7 +9587,7 @@
         <v>41284</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>41306</v>
       </c>
@@ -9612,7 +9611,7 @@
         <v>41311</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>106</v>
@@ -9631,7 +9630,7 @@
         <v>41331</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>106</v>
@@ -9650,7 +9649,7 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>104</v>
@@ -9667,7 +9666,7 @@
         <v>41345</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>41334</v>
       </c>
@@ -9687,7 +9686,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>41365</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>41394</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>184</v>
@@ -9730,7 +9729,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>41395</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>41409</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>46</v>
@@ -9775,7 +9774,7 @@
         <v>41408</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>187</v>
@@ -9794,7 +9793,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>185</v>
@@ -9811,7 +9810,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="50"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>41426</v>
       </c>
@@ -9831,7 +9830,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>41456</v>
       </c>
@@ -9857,7 +9856,7 @@
         <v>41457</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>55</v>
@@ -9874,7 +9873,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>41487</v>
       </c>
@@ -9900,7 +9899,7 @@
         <v>41516</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>41518</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>41530</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>41548</v>
       </c>
@@ -9952,7 +9951,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>68</v>
@@ -9969,7 +9968,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>41579</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>186</v>
@@ -10010,7 +10009,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>41609</v>
       </c>
@@ -10030,7 +10029,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="48" t="s">
         <v>191</v>
       </c>
@@ -10048,7 +10047,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>41640</v>
       </c>
@@ -10074,7 +10073,7 @@
         <v>41284</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>104</v>
@@ -10091,7 +10090,7 @@
         <v>41298</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>104</v>
@@ -10108,7 +10107,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>41671</v>
       </c>
@@ -10128,7 +10127,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>41699</v>
       </c>
@@ -10148,7 +10147,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>41730</v>
       </c>
@@ -10172,7 +10171,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41760</v>
       </c>
@@ -10198,7 +10197,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>104</v>
@@ -10217,7 +10216,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>55</v>
@@ -10234,7 +10233,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41791</v>
       </c>
@@ -10258,7 +10257,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>41821</v>
       </c>
@@ -10284,7 +10283,7 @@
         <v>41850</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>119</v>
@@ -10303,7 +10302,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>194</v>
@@ -10320,7 +10319,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>41852</v>
       </c>
@@ -10346,7 +10345,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>195</v>
@@ -10363,7 +10362,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>41883</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>41897</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>46</v>
@@ -10408,7 +10407,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>46</v>
@@ -10425,7 +10424,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>196</v>
@@ -10442,7 +10441,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>41913</v>
       </c>
@@ -10468,7 +10467,7 @@
         <v>41920</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>70</v>
@@ -10487,7 +10486,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>197</v>
@@ -10504,7 +10503,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>41944</v>
       </c>
@@ -10525,7 +10524,7 @@
         <v>41971</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>46</v>
@@ -10544,7 +10543,7 @@
         <v>41957</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>201</v>
@@ -10561,7 +10560,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>41974</v>
       </c>
@@ -10585,7 +10584,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="48" t="s">
         <v>203</v>
       </c>
@@ -10603,7 +10602,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>42005</v>
       </c>
@@ -10627,7 +10626,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="50"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>42036</v>
       </c>
@@ -10653,7 +10652,7 @@
         <v>42083</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>205</v>
@@ -10670,7 +10669,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>42064</v>
       </c>
@@ -10694,7 +10693,7 @@
         <v>42082</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>206</v>
@@ -10711,7 +10710,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>42095</v>
       </c>
@@ -10735,7 +10734,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42125</v>
       </c>
@@ -10761,7 +10760,7 @@
         <v>42139</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>47</v>
@@ -10778,7 +10777,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>42156</v>
       </c>
@@ -10802,7 +10801,7 @@
         <v>42172</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>207</v>
@@ -10819,7 +10818,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>42186</v>
       </c>
@@ -10845,7 +10844,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>104</v>
@@ -10862,7 +10861,7 @@
         <v>42212</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>62</v>
@@ -10879,7 +10878,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>42217</v>
       </c>
@@ -10905,7 +10904,7 @@
         <v>42262</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>46</v>
@@ -10924,7 +10923,7 @@
         <v>42249</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42248</v>
       </c>
@@ -10950,7 +10949,7 @@
         <v>42258</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>67</v>
@@ -10967,7 +10966,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>42278</v>
       </c>
@@ -10993,7 +10992,7 @@
         <v>42290</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>46</v>
@@ -11012,7 +11011,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>49</v>
@@ -11031,7 +11030,7 @@
         <v>42335</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>42309</v>
       </c>
@@ -11057,7 +11056,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>106</v>
@@ -11076,7 +11075,7 @@
         <v>42334</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>46</v>
@@ -11095,7 +11094,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>209</v>
@@ -11112,7 +11111,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>42339</v>
       </c>
@@ -11136,7 +11135,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="48" t="s">
         <v>212</v>
       </c>
@@ -11154,7 +11153,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>42370</v>
       </c>
@@ -11178,7 +11177,7 @@
         <v>42377</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>140</v>
@@ -11195,7 +11194,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>213</v>
@@ -11212,7 +11211,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>42401</v>
       </c>
@@ -11238,7 +11237,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>214</v>
@@ -11255,7 +11254,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>42430</v>
       </c>
@@ -11281,7 +11280,7 @@
         <v>42452</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>216</v>
@@ -11298,7 +11297,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="50"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>42461</v>
       </c>
@@ -11324,7 +11323,7 @@
         <v>42466</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>79</v>
@@ -11341,7 +11340,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>42491</v>
       </c>
@@ -11367,7 +11366,7 @@
         <v>42502</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>217</v>
@@ -11384,7 +11383,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>42522</v>
       </c>
@@ -11408,7 +11407,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>42552</v>
       </c>
@@ -11434,7 +11433,7 @@
         <v>42572</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>219</v>
@@ -11451,7 +11450,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42583</v>
       </c>
@@ -11477,7 +11476,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>49</v>
@@ -11496,7 +11495,7 @@
         <v>42628</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>46</v>
@@ -11515,7 +11514,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>49</v>
@@ -11534,7 +11533,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>220</v>
@@ -11551,7 +11550,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>42614</v>
       </c>
@@ -11575,7 +11574,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>42644</v>
       </c>
@@ -11601,7 +11600,7 @@
         <v>42654</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>57</v>
@@ -11620,7 +11619,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>46</v>
@@ -11639,7 +11638,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>49</v>
@@ -11658,7 +11657,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>222</v>
@@ -11675,7 +11674,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>42675</v>
       </c>
@@ -11699,7 +11698,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>42705</v>
       </c>
@@ -11725,7 +11724,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>46</v>
@@ -11747,7 +11746,7 @@
         <v>42732</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>225</v>
@@ -11767,7 +11766,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="48" t="s">
         <v>227</v>
       </c>
@@ -11785,7 +11784,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>42736</v>
       </c>
@@ -11809,7 +11808,7 @@
         <v>42748</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>46</v>
@@ -11828,7 +11827,7 @@
         <v>42759</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>228</v>
@@ -11845,7 +11844,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>42767</v>
       </c>
@@ -11869,7 +11868,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>42795</v>
       </c>
@@ -11895,7 +11894,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>49</v>
@@ -11914,7 +11913,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>230</v>
@@ -11931,7 +11930,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>42826</v>
       </c>
@@ -11951,7 +11950,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>42856</v>
       </c>
@@ -11977,7 +11976,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>57</v>
@@ -11996,7 +11995,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>55</v>
@@ -12013,7 +12012,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>42887</v>
       </c>
@@ -12033,7 +12032,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>42917</v>
       </c>
@@ -12057,7 +12056,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>49</v>
@@ -12076,7 +12075,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>42948</v>
       </c>
@@ -12102,7 +12101,7 @@
         <v>42976</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>42979</v>
       </c>
@@ -12122,7 +12121,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>43009</v>
       </c>
@@ -12146,7 +12145,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43040</v>
       </c>
@@ -12172,7 +12171,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>46</v>
@@ -12191,7 +12190,7 @@
         <v>43088</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43070</v>
       </c>
@@ -12211,7 +12210,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="48" t="s">
         <v>234</v>
       </c>
@@ -12229,7 +12228,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>43101</v>
       </c>
@@ -12249,7 +12248,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43132</v>
       </c>
@@ -12269,7 +12268,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43160</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43191</v>
       </c>
@@ -12315,7 +12314,7 @@
         <v>43202</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>43221</v>
       </c>
@@ -12341,7 +12340,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>49</v>
@@ -12360,7 +12359,7 @@
         <v>43229</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>46</v>
@@ -12379,7 +12378,7 @@
         <v>43230</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>70</v>
@@ -12398,7 +12397,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43252</v>
       </c>
@@ -12418,7 +12417,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43282</v>
       </c>
@@ -12438,7 +12437,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43313</v>
       </c>
@@ -12458,7 +12457,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43344</v>
       </c>
@@ -12484,7 +12483,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>43374</v>
       </c>
@@ -12504,7 +12503,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>43405</v>
       </c>
@@ -12530,7 +12529,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>43435</v>
       </c>
@@ -12556,7 +12555,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="48" t="s">
         <v>239</v>
       </c>
@@ -12574,7 +12573,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>43466</v>
       </c>
@@ -12598,7 +12597,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43497</v>
       </c>
@@ -12624,7 +12623,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>140</v>
@@ -12641,7 +12640,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43525</v>
       </c>
@@ -12667,7 +12666,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43556</v>
       </c>
@@ -12691,7 +12690,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>49</v>
@@ -12710,7 +12709,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43586</v>
       </c>
@@ -12736,7 +12735,7 @@
         <v>43600</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>49</v>
@@ -12755,7 +12754,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>43617</v>
       </c>
@@ -12781,7 +12780,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>43647</v>
       </c>
@@ -12807,7 +12806,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>43678</v>
       </c>
@@ -12833,7 +12832,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>43709</v>
       </c>
@@ -12853,7 +12852,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>43739</v>
       </c>
@@ -12873,7 +12872,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>43770</v>
       </c>
@@ -12899,7 +12898,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>49</v>
@@ -12918,7 +12917,7 @@
         <v>43797</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>46</v>
@@ -12937,7 +12936,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>46</v>
@@ -12956,7 +12955,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43800</v>
       </c>
@@ -12976,7 +12975,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="48" t="s">
         <v>243</v>
       </c>
@@ -12994,7 +12993,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>43831</v>
       </c>
@@ -13018,7 +13017,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>140</v>
@@ -13035,7 +13034,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>43862</v>
       </c>
@@ -13059,7 +13058,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>43891</v>
       </c>
@@ -13079,7 +13078,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43922</v>
       </c>
@@ -13099,7 +13098,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>43952</v>
       </c>
@@ -13119,7 +13118,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>43983</v>
       </c>
@@ -13143,7 +13142,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>49</v>
@@ -13162,7 +13161,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44013</v>
       </c>
@@ -13182,7 +13181,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44044</v>
       </c>
@@ -13208,7 +13207,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44075</v>
       </c>
@@ -13234,7 +13233,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>57</v>
@@ -13253,7 +13252,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>46</v>
@@ -13272,7 +13271,7 @@
         <v>44096</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44105</v>
       </c>
@@ -13298,7 +13297,7 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>44136</v>
       </c>
@@ -13318,7 +13317,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44166</v>
       </c>
@@ -13344,7 +13343,7 @@
         <v>44187</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>49</v>
@@ -13366,7 +13365,7 @@
         <v>44139</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="48" t="s">
         <v>250</v>
       </c>
@@ -13384,7 +13383,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44197</v>
       </c>
@@ -13404,7 +13403,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44228</v>
       </c>
@@ -13424,7 +13423,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44256</v>
       </c>
@@ -13444,7 +13443,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44287</v>
       </c>
@@ -13464,7 +13463,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44317</v>
       </c>
@@ -13484,7 +13483,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44348</v>
       </c>
@@ -13508,7 +13507,7 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>104</v>
@@ -13525,7 +13524,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>57</v>
@@ -13542,7 +13541,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>57</v>
@@ -13559,7 +13558,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44378</v>
       </c>
@@ -13583,7 +13582,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44409</v>
       </c>
@@ -13603,7 +13602,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>44440</v>
       </c>
@@ -13623,7 +13622,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>44470</v>
       </c>
@@ -13649,7 +13648,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>49</v>
@@ -13668,7 +13667,7 @@
         <v>44495</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>44501</v>
       </c>
@@ -13694,7 +13693,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44531</v>
       </c>
@@ -13714,7 +13713,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="48" t="s">
         <v>252</v>
       </c>
@@ -13732,7 +13731,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>44562</v>
       </c>
@@ -13758,7 +13757,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>44593</v>
       </c>
@@ -13778,7 +13777,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>44621</v>
       </c>
@@ -13804,7 +13803,7 @@
         <v>44645</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>46</v>
@@ -13823,7 +13822,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>104</v>
@@ -13840,7 +13839,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>44652</v>
       </c>
@@ -13866,7 +13865,7 @@
         <v>44655</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>44682</v>
       </c>
@@ -13886,7 +13885,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>44713</v>
       </c>
@@ -13906,7 +13905,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>44743</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>44747</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>46</v>
@@ -13954,7 +13953,7 @@
         <v>44756</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>104</v>
@@ -13971,7 +13970,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>44774</v>
       </c>
@@ -13995,7 +13994,7 @@
         <v>44783</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>44805</v>
       </c>
@@ -14021,7 +14020,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>46</v>
@@ -14043,7 +14042,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>49</v>
@@ -14065,7 +14064,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>44835</v>
       </c>
@@ -14091,7 +14090,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>44866</v>
       </c>
@@ -14117,7 +14116,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>49</v>
@@ -14139,7 +14138,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>44896</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="48" t="s">
         <v>256</v>
       </c>
@@ -14181,7 +14180,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>44927</v>
       </c>
@@ -14205,7 +14204,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>44958</v>
       </c>
@@ -14229,7 +14228,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>104</v>
@@ -14249,7 +14248,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>44986</v>
       </c>
@@ -14275,7 +14274,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>45017</v>
       </c>
@@ -14301,11 +14300,13 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>45047</v>
       </c>
-      <c r="B587" s="20"/>
+      <c r="B587" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C587" s="13"/>
       <c r="D587" s="39"/>
       <c r="E587" s="9"/>
@@ -14314,12 +14315,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H587" s="39"/>
+      <c r="H587" s="39">
+        <v>1</v>
+      </c>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="20"/>
-    </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K587" s="50">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>45078</v>
       </c>
@@ -14337,7 +14342,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>45108</v>
       </c>
@@ -14355,7 +14360,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>45139</v>
       </c>
@@ -14373,7 +14378,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>45170</v>
       </c>
@@ -14391,7 +14396,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>45200</v>
       </c>
@@ -14409,7 +14414,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>45231</v>
       </c>
@@ -14427,7 +14432,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>45261</v>
       </c>
@@ -14445,7 +14450,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>45292</v>
       </c>
@@ -14463,7 +14468,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>45323</v>
       </c>
@@ -14481,7 +14486,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>45352</v>
       </c>
@@ -14499,7 +14504,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>45383</v>
       </c>
@@ -14517,7 +14522,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>45413</v>
       </c>
@@ -14535,7 +14540,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>45444</v>
       </c>
@@ -14553,7 +14558,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>45474</v>
       </c>
@@ -14571,7 +14576,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>45505</v>
       </c>
@@ -14589,7 +14594,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>45536</v>
       </c>
@@ -14607,7 +14612,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>45566</v>
       </c>
@@ -14625,7 +14630,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -14641,7 +14646,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -14657,7 +14662,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -14673,7 +14678,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -14689,7 +14694,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -14705,7 +14710,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -14721,7 +14726,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -14737,7 +14742,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -14753,7 +14758,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -14769,7 +14774,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -14785,7 +14790,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -14801,7 +14806,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -14817,7 +14822,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -14833,7 +14838,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -14849,7 +14854,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -14865,7 +14870,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -14881,7 +14886,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -14897,7 +14902,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -14913,7 +14918,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -14929,7 +14934,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -14945,7 +14950,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -14961,7 +14966,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -14977,7 +14982,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -14993,7 +14998,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15009,7 +15014,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15025,7 +15030,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15041,7 +15046,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15057,7 +15062,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15073,7 +15078,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15089,7 +15094,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="41"/>
       <c r="B634" s="15"/>
       <c r="C634" s="42"/>
@@ -15120,10 +15125,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15146,28 +15151,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -15180,7 +15185,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15209,7 +15214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>25.776</v>
       </c>
@@ -15239,17 +15244,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>258</v>
       </c>
@@ -15273,10 +15278,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!I9,Sheet1!E9)</f>
-        <v>368.779</v>
+        <v>367.779</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -15304,7 +15309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15330,7 +15335,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15356,7 +15361,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15382,7 +15387,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15408,7 +15413,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15434,7 +15439,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15460,7 +15465,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15486,7 +15491,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15506,7 +15511,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15526,7 +15531,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15546,7 +15551,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15567,7 +15572,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15588,7 +15593,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15609,7 +15614,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15630,7 +15635,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15651,7 +15656,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15672,7 +15677,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15693,7 +15698,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15714,7 +15719,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15735,7 +15740,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15756,7 +15761,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15777,7 +15782,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15798,7 +15803,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15819,7 +15824,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15840,7 +15845,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15861,7 +15866,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15882,7 +15887,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15903,7 +15908,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15924,7 +15929,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15945,7 +15950,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15966,7 +15971,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15975,7 +15980,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15984,7 +15989,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15993,7 +15998,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16002,7 +16007,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16011,7 +16016,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16020,7 +16025,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16029,7 +16034,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16038,7 +16043,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16047,7 +16052,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16056,7 +16061,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16065,7 +16070,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16074,7 +16079,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16083,7 +16088,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16092,7 +16097,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16101,7 +16106,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16110,7 +16115,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16119,7 +16124,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16128,7 +16133,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16137,7 +16142,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16146,7 +16151,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16155,7 +16160,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16164,7 +16169,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16173,7 +16178,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16182,7 +16187,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16191,7 +16196,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16200,7 +16205,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16209,7 +16214,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16218,7 +16223,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16227,7 +16232,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
